--- a/Kolekcjoner/test.xlsx
+++ b/Kolekcjoner/test.xlsx
@@ -272,7 +272,7 @@
     <t>Spearbreaker Behemoth</t>
   </si>
   <si>
-    <t>Soul Majesty</t>
+    <t>Soul's Majesty</t>
   </si>
   <si>
     <t>Skullmulcher</t>
@@ -416,7 +416,7 @@
     <t>mindlock orb</t>
   </si>
   <si>
-    <t>sharding spinx</t>
+    <t>sharding sphinx</t>
   </si>
   <si>
     <t>telemin performance</t>
@@ -449,10 +449,10 @@
     <t>culling sun</t>
   </si>
   <si>
-    <t>ulsht, the hate seed</t>
-  </si>
-  <si>
-    <t>teysa, orzhob scion</t>
+    <t>ulasht, the hate seed</t>
+  </si>
+  <si>
+    <t>teysa, orzhov scion</t>
   </si>
   <si>
     <t>hex</t>
@@ -482,13 +482,13 @@
     <t>loxodon gatekeeper</t>
   </si>
   <si>
-    <t>tolsmir wolfsblood</t>
+    <t>tolsmir wolfblood</t>
   </si>
   <si>
     <t>primordial sage</t>
   </si>
   <si>
-    <t>congregation of dawn</t>
+    <t>congregation at dawn</t>
   </si>
   <si>
     <t>borborygmos</t>
@@ -5195,8 +5195,8 @@
   </sheetPr>
   <dimension ref="A1:F1955"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1259" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1273" activeCellId="0" sqref="A1273"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
